--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\Cricket-Website\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84381F43-15C9-4C6A-AA40-FB3D99119E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84633E8-48F0-493C-A2DD-507DC55F39D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -137,15 +137,38 @@
   </si>
   <si>
     <t>₹3,200</t>
+  </si>
+  <si>
+    <t>72 Black Edition Cricket Bat</t>
+  </si>
+  <si>
+    <t>₹5,500</t>
+  </si>
+  <si>
+    <t>₹6,000</t>
+  </si>
+  <si>
+    <t>72 Black Edition-IMG.jpeg</t>
+  </si>
+  <si>
+    <t>950g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -172,10 +195,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,7 +548,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,195 +559,225 @@
     <col min="5" max="5" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>4.8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>4.7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2">
+        <v>72</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -727,8 +786,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J3 A6:B6 E6:J6 A5:B5 E5:J5 A4:I4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J3 A6:B6 E6:J6 A5:B5 E5:J5 A4:D4 F4:I4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\Cricket-Website\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84633E8-48F0-493C-A2DD-507DC55F39D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076E9E04-58C5-4D91-9FA4-92AC2C9E5D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -152,6 +152,21 @@
   </si>
   <si>
     <t>950g</t>
+  </si>
+  <si>
+    <t>Icon Edition Cricket Bat</t>
+  </si>
+  <si>
+    <t>₹4,500</t>
+  </si>
+  <si>
+    <t>₹5,000</t>
+  </si>
+  <si>
+    <t>Icon Edition-IMG.jpeg</t>
+  </si>
+  <si>
+    <t>1050g</t>
   </si>
 </sst>
 </file>
@@ -195,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -205,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,7 +566,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,6 +799,35 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4">
+        <v>72</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F9" s="1"/>
     </row>
@@ -788,7 +835,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J3 A6:B6 E6:J6 A5:B5 E5:J5 A4:D4 F4:I4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J3 A6:B6 E6:J6 A5:B5 E5:J5 A4:I4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\Cricket-Website\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076E9E04-58C5-4D91-9FA4-92AC2C9E5D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4750D917-0E0F-45CB-B8C4-629D43F313D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>1050g</t>
+  </si>
+  <si>
+    <t>Hulk Edition Hole Bat</t>
+  </si>
+  <si>
+    <t>₹4,800</t>
+  </si>
+  <si>
+    <t>Hulk Hole Bat-VIDEO.mp4</t>
+  </si>
+  <si>
+    <t>1100g</t>
   </si>
 </sst>
 </file>
@@ -213,9 +225,6 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -223,6 +232,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,7 +578,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,264 +590,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>4.8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>4.7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>72</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>4.8</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>72</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>4.7</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F9" s="1"/>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="4">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J3 A6:B6 E6:J6 A5:B5 E5:J5 A4:I4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J2 A6:B6 E6:J6 A5:B5 E5:J5 A4:I4 A3:D3 F3:J3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\Cricket-Website\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4750D917-0E0F-45CB-B8C4-629D43F313D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2696C2-6E2E-40B8-AA95-EFB3E771F38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>1100g</t>
+  </si>
+  <si>
+    <t>Ciel</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,7 +737,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>15</v>
@@ -766,7 +769,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
@@ -873,7 +876,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J2 A6:B6 E6:J6 A5:B5 E5:J5 A4:I4 A3:D3 F3:J3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J2 A6:B6 E6 A5:B5 E5 A4:I4 A3:D3 F3:J3 G5:J5 G6:J6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\Cricket-Website\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2696C2-6E2E-40B8-AA95-EFB3E771F38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F5AD89-0CEB-47D6-9146-2AD79AAA62F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -58,9 +58,6 @@
     <t>₹2,000</t>
   </si>
   <si>
-    <t>₹2,200</t>
-  </si>
-  <si>
     <t>New Pro Players Edition-IMG.png</t>
   </si>
   <si>
@@ -73,18 +70,12 @@
     <t>1180g</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>New Premium Players</t>
   </si>
   <si>
     <t>₹1,899</t>
   </si>
   <si>
-    <t>₹2,100</t>
-  </si>
-  <si>
     <t>New Premium Players-IMG.png</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>₹1,500</t>
   </si>
   <si>
-    <t>₹1,700</t>
-  </si>
-  <si>
     <t>77 CBS Edition 7 Star-IMG.png</t>
   </si>
   <si>
@@ -118,9 +106,6 @@
     <t>1200g</t>
   </si>
   <si>
-    <t>Sale</t>
-  </si>
-  <si>
     <t>Ciel Gold edition hard tennis cricket bat</t>
   </si>
   <si>
@@ -133,21 +118,12 @@
     <t>1160g</t>
   </si>
   <si>
-    <t>₹3,700</t>
-  </si>
-  <si>
-    <t>₹3,200</t>
-  </si>
-  <si>
     <t>72 Black Edition Cricket Bat</t>
   </si>
   <si>
     <t>₹5,500</t>
   </si>
   <si>
-    <t>₹6,000</t>
-  </si>
-  <si>
     <t>72 Black Edition-IMG.jpeg</t>
   </si>
   <si>
@@ -158,9 +134,6 @@
   </si>
   <si>
     <t>₹4,500</t>
-  </si>
-  <si>
-    <t>₹5,000</t>
   </si>
   <si>
     <t>Icon Edition-IMG.jpeg</t>
@@ -230,13 +203,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,46 +554,51 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" customWidth="1"/>
+    <col min="5" max="5" width="50.796875" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" customWidth="1"/>
+    <col min="8" max="8" width="9.3984375" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -634,249 +612,215 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="1">
         <v>4.8</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I3" s="1">
         <v>4.7</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I4" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1">
         <v>72</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1">
         <v>4.8</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="3">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2">
         <v>72</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1">
         <v>4.7</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="4">
+        <v>42</v>
+      </c>
+      <c r="F9" s="3">
         <v>72</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I9" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="J9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J2 A6:B6 E6 A5:B5 E5 A4:I4 A3:D3 F3:J3 G5:J5 G6:J6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J1 A6:B6 E6 A5:B5 E5 A4:C4 A3:C3 F3:I3 G5:I5 G6:I6 A2:C2 E2:I2 E4:I4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\Cricket-Website\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F5AD89-0CEB-47D6-9146-2AD79AAA62F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4323E49A-DEDC-4125-B5B3-99E080F697F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\Cricket-Website\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4323E49A-DEDC-4125-B5B3-99E080F697F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2CFA2-CAEA-4684-906C-8C3CCDF8F2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -211,6 +211,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,7 +557,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +631,7 @@
       <c r="I2" s="1">
         <v>4.8</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -820,7 +823,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J1 A6:B6 E6 A5:B5 E5 A4:C4 A3:C3 F3:I3 G5:I5 G6:I6 A2:C2 E2:I2 E4:I4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J1 A6:B6 E6 A5:B5 E5 A4:C4 A3 F3:I3 G5:I5 G6:I6 A2:C2 E2:I2 E4:I4 C3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\Cricket-Website\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2CFA2-CAEA-4684-906C-8C3CCDF8F2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A269CF-70DF-40CA-9D92-858FC332A952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,15 +557,15 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="43.19921875" customWidth="1"/>
     <col min="3" max="3" width="12.8984375" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" customWidth="1"/>
-    <col min="5" max="5" width="50.796875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="56.5" customWidth="1"/>
     <col min="6" max="6" width="8.8984375" customWidth="1"/>
     <col min="7" max="7" width="9.59765625" customWidth="1"/>
     <col min="8" max="8" width="9.3984375" customWidth="1"/>
@@ -605,7 +605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -633,7 +633,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -661,7 +661,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -689,7 +689,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -717,7 +717,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -745,7 +745,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -795,7 +795,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -823,7 +823,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J1 A6:B6 E6 A5:B5 E5 A4:C4 A3 F3:I3 G5:I5 G6:I6 A2:C2 E2:I2 E4:I4 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J1 A6:B6 E6 A5:B5 E5 A4:C4 A3 F3:I3 G5:I5 G6:I6 A2:C2 F2:I2 E4:I4 C3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\Cricket-Website\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A269CF-70DF-40CA-9D92-858FC332A952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9521D59F-937A-4664-A685-64DC0CDE9C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>₹5,500</t>
   </si>
   <si>
-    <t>72 Black Edition-IMG.jpeg</t>
-  </si>
-  <si>
     <t>950g</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>₹4,500</t>
   </si>
   <si>
-    <t>Icon Edition-IMG.jpeg</t>
-  </si>
-  <si>
     <t>1050g</t>
   </si>
   <si>
@@ -148,20 +142,26 @@
     <t>₹4,800</t>
   </si>
   <si>
-    <t>Hulk Hole Bat-VIDEO.mp4</t>
-  </si>
-  <si>
     <t>1100g</t>
   </si>
   <si>
     <t>Ciel</t>
+  </si>
+  <si>
+    <t>72 Black Edition\72 Black Edition-IMG.jpeg, 72 Black Edition\72 Black Edition-IMG2.JPG, 72 Black Edition\72 Black Edition-IMG3.JPG</t>
+  </si>
+  <si>
+    <t>72 Icon Edition\Icon Edition-IMG2.JPG, 72 Icon Edition\Icon Edition-IMG3.JPG, 72 Icon Edition\Icon Edition-IMG4.JPG</t>
+  </si>
+  <si>
+    <t>Hulk Hole\Hulk Hole Bat-VIDEO.mp4, Hulk Hole\Hulk Hole Bat-IMG2.JPG, Hulk Hole\Hulk Hole Bat-IMG3.JPG, Hulk Hole\Hulk Hole Bat-IMG4.JPG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,6 +173,12 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -556,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -565,8 +571,8 @@
     <col min="2" max="2" width="43.19921875" customWidth="1"/>
     <col min="3" max="3" width="12.8984375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="56.5" customWidth="1"/>
-    <col min="6" max="6" width="8.8984375" customWidth="1"/>
+    <col min="5" max="5" width="122.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="9.59765625" customWidth="1"/>
     <col min="8" max="8" width="9.3984375" customWidth="1"/>
     <col min="9" max="9" width="9.19921875" customWidth="1"/>
@@ -704,7 +710,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
@@ -732,7 +738,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
@@ -757,14 +763,14 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1">
         <v>72</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1">
         <v>4.8</v>
@@ -776,19 +782,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2">
         <v>72</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1">
         <v>4.7</v>
@@ -800,19 +806,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3">
         <v>72</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1">
         <v>4.9000000000000004</v>
@@ -820,6 +826,7 @@
       <c r="J9" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>

--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\Cricket-Website\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9521D59F-937A-4664-A685-64DC0CDE9C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD66E49-8670-40F9-8AF2-88CA4D95A738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -67,9 +67,6 @@
     <t/>
   </si>
   <si>
-    <t>1180g</t>
-  </si>
-  <si>
     <t>New Premium Players</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>New Premium Players-IMG.png</t>
   </si>
   <si>
-    <t>1190g</t>
-  </si>
-  <si>
     <t>77 CBS Edition 7 Star</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>77 CBS Edition 7 Star-IMG.png</t>
   </si>
   <si>
-    <t>1170g</t>
-  </si>
-  <si>
     <t>Ciel Fighter AK 47 hard tennis cricket bat</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>Ciel Fighter AK 47 hard tennis cricket bat-IMG.jpeg</t>
   </si>
   <si>
-    <t>1200g</t>
-  </si>
-  <si>
     <t>Ciel Gold edition hard tennis cricket bat</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>Ciel Gold edition hard tennis cricket bat-IMG.jpeg</t>
   </si>
   <si>
-    <t>1160g</t>
-  </si>
-  <si>
     <t>72 Black Edition Cricket Bat</t>
   </si>
   <si>
@@ -133,18 +118,9 @@
     <t>₹4,500</t>
   </si>
   <si>
-    <t>1050g</t>
-  </si>
-  <si>
-    <t>Hulk Edition Hole Bat</t>
-  </si>
-  <si>
     <t>₹4,800</t>
   </si>
   <si>
-    <t>1100g</t>
-  </si>
-  <si>
     <t>Ciel</t>
   </si>
   <si>
@@ -155,6 +131,24 @@
   </si>
   <si>
     <t>Hulk Hole\Hulk Hole Bat-VIDEO.mp4, Hulk Hole\Hulk Hole Bat-IMG2.JPG, Hulk Hole\Hulk Hole Bat-IMG3.JPG, Hulk Hole\Hulk Hole Bat-IMG4.JPG</t>
+  </si>
+  <si>
+    <t>980g</t>
+  </si>
+  <si>
+    <t>1010g</t>
+  </si>
+  <si>
+    <t>995g</t>
+  </si>
+  <si>
+    <t>985g</t>
+  </si>
+  <si>
+    <t>1000g</t>
+  </si>
+  <si>
+    <t>Hulk Edition Bat</t>
   </si>
 </sst>
 </file>
@@ -562,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -632,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1">
         <v>4.8</v>
@@ -644,14 +638,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -660,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1">
         <v>4.7</v>
@@ -672,14 +666,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -688,7 +682,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1">
         <v>4.9000000000000004</v>
@@ -700,23 +694,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1">
         <v>4.5999999999999996</v>
@@ -728,23 +722,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
@@ -756,21 +750,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1">
         <v>72</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
         <v>4.8</v>
@@ -782,19 +776,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F8" s="2">
         <v>72</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1">
         <v>4.7</v>
@@ -806,19 +800,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3">
         <v>72</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I9" s="1">
         <v>4.9000000000000004</v>
@@ -830,7 +824,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J1 A6:B6 E6 A5:B5 E5 A4:C4 A3 F3:I3 G5:I5 G6:I6 A2:C2 F2:I2 E4:I4 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J1 A6:B6 E6 A5:B5 E5 A4:C4 A3 F3:G3 G5 G6 A2:C2 F2:G2 E4:G4 C3 I2 I3 I4 I5 I6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\Cricket-Website\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD66E49-8670-40F9-8AF2-88CA4D95A738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61940624-38AD-4614-9864-06EA8C3E246B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Hulk Edition Bat</t>
+  </si>
+  <si>
+    <t>Sale</t>
   </si>
 </sst>
 </file>
@@ -557,16 +560,17 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="122.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="4.296875" customWidth="1"/>
+    <col min="2" max="2" width="42.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="124.3984375" customWidth="1"/>
+    <col min="6" max="6" width="9.796875" customWidth="1"/>
     <col min="7" max="7" width="9.59765625" customWidth="1"/>
     <col min="8" max="8" width="9.3984375" customWidth="1"/>
     <col min="9" max="9" width="9.19921875" customWidth="1"/>
@@ -631,7 +635,9 @@
       <c r="I2" s="1">
         <v>4.8</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -659,7 +665,9 @@
       <c r="I3" s="1">
         <v>4.7</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -687,7 +695,9 @@
       <c r="I4" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -715,7 +725,9 @@
       <c r="I5" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -743,7 +755,9 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -769,7 +783,9 @@
       <c r="I7" s="1">
         <v>4.8</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -793,7 +809,9 @@
       <c r="I8" s="1">
         <v>4.7</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -817,7 +835,9 @@
       <c r="I9" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\Cricket-Website\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61940624-38AD-4614-9864-06EA8C3E246B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD793A1F-0E2A-42F6-B329-C2B2B824851E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,18 +91,12 @@
     <t>₹3,000</t>
   </si>
   <si>
-    <t>Ciel Fighter AK 47 hard tennis cricket bat-IMG.jpeg</t>
-  </si>
-  <si>
     <t>Ciel Gold edition hard tennis cricket bat</t>
   </si>
   <si>
     <t>₹3,500</t>
   </si>
   <si>
-    <t>Ciel Gold edition hard tennis cricket bat-IMG.jpeg</t>
-  </si>
-  <si>
     <t>72 Black Edition Cricket Bat</t>
   </si>
   <si>
@@ -152,6 +146,12 @@
   </si>
   <si>
     <t>Sale</t>
+  </si>
+  <si>
+    <t>Ciel Gold Edition\IMG_5230.JPG, Ciel Gold Edition\IMG_5228.JPG, Ciel Gold Edition\Ciel Gold edition hard tennis cricket bat-IMG.jpeg</t>
+  </si>
+  <si>
+    <t>Ciel Fighter AK47\Ciel Fighter AK 47 hard tennis cricket bat-IMG.jpeg, Ciel Fighter AK47\IMG_5224.JPG, Ciel Fighter AK47\IMG_5223.JPG, Ciel Fighter AK47\IMG_5225.JPG</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -217,6 +217,15 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,18 +568,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="2" width="42.3984375" customWidth="1"/>
+    <col min="2" max="2" width="40.09765625" customWidth="1"/>
     <col min="3" max="3" width="11.8984375" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" customWidth="1"/>
-    <col min="5" max="5" width="124.3984375" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" customWidth="1"/>
+    <col min="5" max="5" width="142.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" customWidth="1"/>
     <col min="7" max="7" width="9.59765625" customWidth="1"/>
     <col min="8" max="8" width="9.3984375" customWidth="1"/>
     <col min="9" max="9" width="9.19921875" customWidth="1"/>
@@ -590,7 +599,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -620,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -630,13 +639,13 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1">
         <v>4.8</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -650,7 +659,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -660,13 +669,13 @@
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1">
         <v>4.7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -680,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -690,13 +699,13 @@
         <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1">
         <v>4.9000000000000004</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -710,23 +719,23 @@
         <v>22</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
+      <c r="E5" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1">
         <v>4.5999999999999996</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -734,29 +743,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -764,27 +773,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>72</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1">
         <v>4.8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -792,25 +801,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="2">
         <v>72</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I8" s="1">
         <v>4.7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -818,25 +827,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="F9" s="3">
         <v>72</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1">
         <v>4.9000000000000004</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +853,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J1 A6:B6 E6 A5:B5 E5 A4:C4 A3 F3:G3 G5 G6 A2:C2 F2:G2 E4:G4 C3 I2 I3 I4 I5 I6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J1 A6:B6 A5:B5 A4:C4 A3 F3:G3 G5 G6 A2:C2 F2:G2 E4:G4 C3 I2 I3 I4 I5 I6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\Cricket-Website\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD793A1F-0E2A-42F6-B329-C2B2B824851E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477A623E-0D42-4CBA-A35D-D8C03E0D16B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>Ciel Fighter AK47\Ciel Fighter AK 47 hard tennis cricket bat-IMG.jpeg, Ciel Fighter AK47\IMG_5224.JPG, Ciel Fighter AK47\IMG_5223.JPG, Ciel Fighter AK47\IMG_5225.JPG</t>
+  </si>
+  <si>
+    <t>20%Off</t>
+  </si>
+  <si>
+    <t>₹2,300</t>
   </si>
 </sst>
 </file>
@@ -569,7 +575,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -628,7 +634,9 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
@@ -845,7 +853,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +861,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J1 A6:B6 A5:B5 A4:C4 A3 F3:G3 G5 G6 A2:C2 F2:G2 E4:G4 C3 I2 I3 I4 I5 I6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J1 A6:B6 A5:B5 A4:C4 A3 F3:G3 G5 G6 A2:B2 F2:G2 E4:G4 C3 I2 I3 I4 I5 I6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>